--- a/SPPSApi/Doc/Template/FS0304_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0304_Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A99C00B-7CC7-4461-83C4-1DA28A7B299E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E83302C-5A26-4CFD-BE76-B7DA6172C9A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>变更事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>纳期日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属原单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号口品番(参考)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,13 +335,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -696,208 +704,216 @@
   <cols>
     <col min="1" max="2" width="10.1796875" customWidth="1"/>
     <col min="3" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" customWidth="1"/>
-    <col min="7" max="7" width="6.36328125" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" customWidth="1"/>
-    <col min="14" max="14" width="23.1796875" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" customWidth="1"/>
-    <col min="17" max="17" width="17.36328125" customWidth="1"/>
-    <col min="18" max="18" width="8.453125" customWidth="1"/>
-    <col min="19" max="19" width="7.90625" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="12.54296875" customWidth="1"/>
-    <col min="23" max="23" width="15.36328125" customWidth="1"/>
-    <col min="24" max="25" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.36328125" customWidth="1"/>
-    <col min="27" max="27" width="14.1796875" customWidth="1"/>
-    <col min="28" max="28" width="17.90625" customWidth="1"/>
-    <col min="29" max="29" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" customWidth="1"/>
+    <col min="8" max="8" width="6.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" customWidth="1"/>
+    <col min="14" max="14" width="10.08984375" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.36328125" customWidth="1"/>
+    <col min="20" max="20" width="8.453125" customWidth="1"/>
+    <col min="21" max="21" width="7.90625" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="12.54296875" customWidth="1"/>
+    <col min="25" max="25" width="15.36328125" customWidth="1"/>
+    <col min="26" max="27" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.36328125" customWidth="1"/>
+    <col min="29" max="29" width="14.1796875" customWidth="1"/>
+    <col min="30" max="30" width="17.90625" customWidth="1"/>
+    <col min="31" max="31" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="3" t="s">
+      <c r="V2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
@@ -910,49 +926,53 @@
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
       <c r="AQ2" s="8"/>
-      <c r="AR2" s="10"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AR1:AR2"/>
+  <mergeCells count="41">
     <mergeCell ref="AM1:AM2"/>
     <mergeCell ref="AN1:AN2"/>
+    <mergeCell ref="AT1:AT2"/>
     <mergeCell ref="AO1:AO2"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0304_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0304_Export.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E83302C-5A26-4CFD-BE76-B7DA6172C9A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A539B64E-D8F3-4811-832B-610ABF0E1FBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>变更事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>号口品番(参考)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复日期(初次)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,15 +339,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -356,6 +351,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -694,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -703,276 +714,282 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.1796875" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" customWidth="1"/>
-    <col min="8" max="8" width="6.36328125" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="11" width="7.36328125" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" customWidth="1"/>
-    <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.36328125" customWidth="1"/>
-    <col min="20" max="20" width="8.453125" customWidth="1"/>
-    <col min="21" max="21" width="7.90625" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="12.54296875" customWidth="1"/>
-    <col min="25" max="25" width="15.36328125" customWidth="1"/>
-    <col min="26" max="27" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.36328125" customWidth="1"/>
-    <col min="29" max="29" width="14.1796875" customWidth="1"/>
-    <col min="30" max="30" width="17.90625" customWidth="1"/>
-    <col min="31" max="31" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="9" max="9" width="6.36328125" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08984375" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" customWidth="1"/>
+    <col min="16" max="16" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="23.1796875" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" customWidth="1"/>
+    <col min="20" max="20" width="17.36328125" customWidth="1"/>
+    <col min="21" max="21" width="8.453125" customWidth="1"/>
+    <col min="22" max="22" width="7.90625" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="12.54296875" customWidth="1"/>
+    <col min="26" max="26" width="15.36328125" customWidth="1"/>
+    <col min="27" max="28" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.36328125" customWidth="1"/>
+    <col min="30" max="30" width="14.1796875" customWidth="1"/>
+    <col min="31" max="31" width="17.90625" customWidth="1"/>
+    <col min="32" max="32" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="2" t="s">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="10"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AM1:AM2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="AT1:AT2"/>
     <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AU1:AU2"/>
     <mergeCell ref="AP1:AP2"/>
     <mergeCell ref="AQ1:AQ2"/>
     <mergeCell ref="AR1:AR2"/>
     <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="AT1:AT2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
